--- a/docs/Data/SubwayData.xlsx
+++ b/docs/Data/SubwayData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://webmailbyui-my.sharepoint.com/personal/drp36_byui_edu/Documents/221/Course_Files/BYUI_M221_Book/docs/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://webmailbyui-my.sharepoint.com/personal/drp36_byui_edu/Documents/221/Course_Files/BYUI_M221_Book/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7F5CFFB-D12B-41A4-B1BD-5985C9C99369}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB17ABAA-3D54-4BCA-BC24-975949E38EED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
